--- a/biology/Botanique/Moses_Ashley_Curtis/Moses_Ashley_Curtis.xlsx
+++ b/biology/Botanique/Moses_Ashley_Curtis/Moses_Ashley_Curtis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moses Ashley Curtis est un botaniste et un mycologue américain, né le 11 mai 1808 à Stockbridge dans le Massachusetts et mort le 10 avril 1872 à Hillsboro.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jared Curtis et de Thankful née Ashley. Il est diplôme au William College en 1827. Il se marie le 3 décembre 1834 avec Mart de Rosset. Il est ordonné prêtre de l’église épiscopale en 1835 et devient missionnaire en Caroline du Nord jusqu’en 1837.
 De 1837 à 1839, il enseigne à l’école de l’église épiscopale de Raleigh. De 1841 à 1847, Curtis est pasteur à Hillsboro, puis à Society Hill jusqu’en 1856, avant de revenir à Hillsboro où il exerce jusqu’à sa mort.
